--- a/python/doc/Zeitplanung.xlsx
+++ b/python/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDD75CA-BA1F-DE46-94F0-696B7BD9D3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C487CB-F01A-AB44-9651-2DCD0B653362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2241,8 +2241,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/python/doc/Zeitplanung.xlsx
+++ b/python/doc/Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/python/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C487CB-F01A-AB44-9651-2DCD0B653362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B16DB1-0FCB-2D4F-9379-F24F4FA539F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1734,7 +1734,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2241,8 +2241,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>25</v>
+        <v>32.75</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3695,7 +3695,9 @@
       <c r="Q20" s="93">
         <v>3</v>
       </c>
-      <c r="R20" s="94"/>
+      <c r="R20" s="94">
+        <v>3</v>
+      </c>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
@@ -3832,7 +3834,7 @@
       </c>
       <c r="D22" s="82">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3853,7 +3855,9 @@
       <c r="Q22" s="110">
         <v>5</v>
       </c>
-      <c r="R22" s="93"/>
+      <c r="R22" s="93">
+        <v>2</v>
+      </c>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
@@ -3911,7 +3915,7 @@
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3928,7 +3932,9 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="94"/>
+      <c r="R23" s="94">
+        <v>2.75</v>
+      </c>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
@@ -5353,7 +5359,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>28.25</v>
+        <v>36</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5402,8 +5408,8 @@
         <v>8</v>
       </c>
       <c r="R43" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(R9:R42)</f>
+        <v>7.75</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -5685,7 +5691,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>25</v>
+        <v>32.75</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
